--- a/Tables/Summary_Stats.xlsx
+++ b/Tables/Summary_Stats.xlsx
@@ -1,110 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9357ead23f83527e/Time Series/Final Paper/TS_Final_paper/Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_834A3033F4D1EEA31C453ABF073E1B939259BDD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E169B49B-8AEC-42A1-930B-7933D09B5850}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>N.Valid</t>
-  </si>
-  <si>
-    <t>14978.794</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>2631.696</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>Std.Dev</t>
-  </si>
-  <si>
-    <t>11046.044</t>
-  </si>
-  <si>
-    <t>-0.059</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>12939.673</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>14292.801</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>17806.847</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>19543.598</t>
-  </si>
-  <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">Coal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45358.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7332.897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std.Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32327.811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39663.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43610.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52418.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58093.292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -129,58 +122,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -462,116 +414,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>